--- a/results/mp/logistic/corona/confidence/84/0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,58 +55,64 @@
     <t>no</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>relief</t>
@@ -115,37 +121,22 @@
     <t>like</t>
   </si>
   <si>
-    <t>better</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -503,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -622,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.455026455026455</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3624031007751938</v>
+        <v>0.3662790697674418</v>
       </c>
       <c r="C5">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D5">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2214765100671141</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1527777777777778</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,69 +781,45 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8198433420365535</v>
+      </c>
+      <c r="L7">
+        <v>314</v>
+      </c>
+      <c r="M7">
+        <v>314</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L7">
-        <v>96</v>
-      </c>
-      <c r="M7">
-        <v>96</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.00505738183232834</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <v>0.48</v>
-      </c>
-      <c r="F8">
-        <v>0.52</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>5115</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8407310704960835</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L8">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="M8">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,21 +831,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8207547169811321</v>
+        <v>0.7890625</v>
       </c>
       <c r="L9">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,21 +857,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8098591549295775</v>
+        <v>0.7875</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -916,21 +883,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7948717948717948</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -942,21 +909,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -968,21 +935,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7875</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L13">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -994,21 +961,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1020,15 +987,15 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
         <v>36</v>
@@ -1046,21 +1013,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.765625</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1072,21 +1039,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1098,21 +1065,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1124,21 +1091,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1150,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6323529411764706</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L20">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1176,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6031746031746031</v>
+        <v>0.65</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1202,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5941422594142259</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1228,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5846153846153846</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1254,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5813953488372093</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1280,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="L25">
         <v>37</v>
       </c>
-      <c r="K25">
-        <v>0.576271186440678</v>
-      </c>
-      <c r="L25">
-        <v>170</v>
-      </c>
       <c r="M25">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1306,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>125</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5428571428571428</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1332,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5393258426966292</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L27">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M27">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1363,16 +1330,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5319148936170213</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1384,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.358974358974359</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1410,59 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L30">
-        <v>25</v>
-      </c>
-      <c r="M30">
-        <v>25</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31">
-        <v>0.005421686746987952</v>
-      </c>
-      <c r="L31">
-        <v>27</v>
-      </c>
-      <c r="M31">
-        <v>43</v>
-      </c>
-      <c r="N31">
-        <v>0.63</v>
-      </c>
-      <c r="O31">
-        <v>0.37</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>4953</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
